--- a/score.xlsx
+++ b/score.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -409,7 +409,7 @@
         <v>Series name</v>
       </c>
       <c r="B1" t="str">
-        <v>ICC Cricket World Cup League Two 2019-23</v>
+        <v>England tour of New Zealand, 2023</v>
       </c>
     </row>
     <row r="2">
@@ -417,7 +417,7 @@
         <v>Description</v>
       </c>
       <c r="B2" t="str">
-        <v>ICC Cricket World Cup League Two 2019-23</v>
+        <v>England tour of New Zealand, 2023</v>
       </c>
     </row>
     <row r="3">
@@ -425,7 +425,7 @@
         <v>Match state</v>
       </c>
       <c r="B3" t="str">
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="4">
@@ -433,7 +433,7 @@
         <v>Match status</v>
       </c>
       <c r="B4" t="str">
-        <v>United Arab Emirates opt to bowl</v>
+        <v>New Zealand opt to bowl</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>Winner</v>
       </c>
       <c r="B6" t="str">
-        <v>United Arab Emirates</v>
+        <v>New Zealand</v>
       </c>
     </row>
     <row r="7">
@@ -473,7 +473,7 @@
         <v>Name</v>
       </c>
       <c r="B9" t="str">
-        <v>Papua New Guinea</v>
+        <v>England</v>
       </c>
     </row>
     <row r="10">
@@ -481,7 +481,7 @@
         <v>Score</v>
       </c>
       <c r="B10">
-        <v>102</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11">
@@ -489,7 +489,7 @@
         <v>Wicket</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -497,7 +497,7 @@
         <v>Current run rate</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="13">
@@ -513,7 +513,7 @@
         <v>Overs</v>
       </c>
       <c r="B14">
-        <v>16.6</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="15">
@@ -521,7 +521,7 @@
         <v>Recent overs</v>
       </c>
       <c r="B15" t="str">
-        <v>... | 0 1 1 0 4 0  | 6 2 0 0 Wd2 0 0</v>
+        <v>... 0 1 0 4  | 0 0 0 0 0 0  | 0 W</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>Last wicket</v>
       </c>
       <c r="B16" t="str">
-        <v>Tony Ura  c Aryan Lakra b Zahoor Khan 54(43)  - 81/1 in 13.6 ov.</v>
+        <v>James Anderson  c Blundell b Wagner 4(6)  - 256/10 in 74.2 ov.</v>
       </c>
     </row>
     <row r="17">
@@ -539,7 +539,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Last 5 overs</v>
+        <v>Last 10 overs</v>
       </c>
     </row>
     <row r="19">
@@ -547,7 +547,7 @@
         <v>Runs</v>
       </c>
       <c r="B19">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -555,7 +555,7 @@
         <v>Wickets</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -568,7 +568,7 @@
         <v>Runs</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
@@ -592,7 +592,7 @@
         <v>Name</v>
       </c>
       <c r="B25" t="str">
-        <v>Sese Bau</v>
+        <v>Jack Leach</v>
       </c>
     </row>
     <row r="26">
@@ -600,7 +600,7 @@
         <v>Runs</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -608,7 +608,7 @@
         <v>Balls</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -616,7 +616,7 @@
         <v>Dot</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -632,7 +632,7 @@
         <v>Sixes</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -640,7 +640,7 @@
         <v>StrikeRate</v>
       </c>
       <c r="B31">
-        <v>142.86</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="32">
@@ -656,7 +656,7 @@
         <v>Name</v>
       </c>
       <c r="B33" t="str">
-        <v>Kiplin Doriga</v>
+        <v/>
       </c>
     </row>
     <row r="34">
@@ -664,7 +664,7 @@
         <v>Runs</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -672,7 +672,7 @@
         <v>Balls</v>
       </c>
       <c r="B35">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -680,7 +680,7 @@
         <v>Dot</v>
       </c>
       <c r="B36">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -688,7 +688,7 @@
         <v>Fours</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -704,7 +704,7 @@
         <v>StrikeRate</v>
       </c>
       <c r="B39">
-        <v>51.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -717,7 +717,7 @@
         <v>Balls</v>
       </c>
       <c r="B41">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -725,7 +725,7 @@
         <v>Runs</v>
       </c>
       <c r="B42">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -738,7 +738,7 @@
         <v>Name</v>
       </c>
       <c r="B44" t="str">
-        <v>Zahoor Khan</v>
+        <v>Neil Wagner</v>
       </c>
     </row>
     <row r="45">
@@ -762,7 +762,7 @@
         <v>Overs</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="48">
@@ -770,7 +770,7 @@
         <v>Runs</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49">
@@ -778,7 +778,7 @@
         <v>Wides</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -786,7 +786,7 @@
         <v>Wickets</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -794,7 +794,7 @@
         <v>Economy</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="52">
@@ -807,7 +807,7 @@
         <v>Name</v>
       </c>
       <c r="B53" t="str">
-        <v>Karthik Meiyappan</v>
+        <v>Tim Southee</v>
       </c>
     </row>
     <row r="54">
@@ -815,7 +815,7 @@
         <v>Maidens</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -831,7 +831,7 @@
         <v>Overs</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="57">
@@ -839,7 +839,7 @@
         <v>Runs</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
@@ -847,7 +847,7 @@
         <v>Wides</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -855,7 +855,7 @@
         <v>Wickets</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -863,57 +863,60 @@
         <v>Economy</v>
       </c>
       <c r="B60">
-        <v>6.33</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>1 Inning</v>
+        <v>Inning No</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Inning No</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
+        <v>Batting Team</v>
+      </c>
+      <c r="B62" t="str">
+        <v>England</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Batting Team</v>
-      </c>
-      <c r="B63" t="str">
-        <v>Papua New Guinea</v>
+        <v>Score</v>
+      </c>
+      <c r="B63">
+        <v>435</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Score</v>
+        <v>Wickets</v>
       </c>
       <c r="B64">
-        <v>102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Wickets</v>
+        <v>Overs</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Overs</v>
-      </c>
-      <c r="B66">
-        <v>16.6</v>
+        <v>Declared</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Yes</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Declared</v>
+        <v>Follow on</v>
       </c>
       <c r="B67" t="str">
         <v>No</v>
@@ -921,24 +924,240 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Follow on</v>
-      </c>
-      <c r="B68" t="str">
-        <v>No</v>
+        <v>Balls</v>
+      </c>
+      <c r="B68">
+        <v>523</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
+        <v>Inning No</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Batting Team</v>
+      </c>
+      <c r="B70" t="str">
+        <v>New Zealand</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Score</v>
+      </c>
+      <c r="B71">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Wickets</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Overs</v>
+      </c>
+      <c r="B73">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Declared</v>
+      </c>
+      <c r="B74" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Follow on</v>
+      </c>
+      <c r="B75" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
         <v>Balls</v>
       </c>
-      <c r="B69">
-        <v>102</v>
+      <c r="B76">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Inning No</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Batting Team</v>
+      </c>
+      <c r="B78" t="str">
+        <v>New Zealand</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Score</v>
+      </c>
+      <c r="B79">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Wickets</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Overs</v>
+      </c>
+      <c r="B81">
+        <v>162.3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Declared</v>
+      </c>
+      <c r="B82" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Follow on</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Balls</v>
+      </c>
+      <c r="B84">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Inning No</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Batting Team</v>
+      </c>
+      <c r="B86" t="str">
+        <v>England</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Score</v>
+      </c>
+      <c r="B87">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Wickets</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Overs</v>
+      </c>
+      <c r="B89">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Declared</v>
+      </c>
+      <c r="B90" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Follow on</v>
+      </c>
+      <c r="B91" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Balls</v>
+      </c>
+      <c r="B92">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Overs</v>
+      </c>
+      <c r="B93">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Declared</v>
+      </c>
+      <c r="B94" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Follow on</v>
+      </c>
+      <c r="B95" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Balls</v>
+      </c>
+      <c r="B96">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B69"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B96"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/score.xlsx
+++ b/score.xlsx
@@ -1,11 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226" filterPrivacy="true"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -399,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -409,7 +407,7 @@
         <v>Series name</v>
       </c>
       <c r="B1" t="str">
-        <v>England tour of New Zealand, 2023</v>
+        <v>Australia tour of India, 2023</v>
       </c>
     </row>
     <row r="2">
@@ -417,291 +415,294 @@
         <v>Description</v>
       </c>
       <c r="B2" t="str">
-        <v>England tour of New Zealand, 2023</v>
+        <v>Australia tour of India, 2023</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Match state</v>
+        <v>Team 1</v>
       </c>
       <c r="B3" t="str">
-        <v>Complete</v>
+        <v>India</v>
+      </c>
+      <c r="C3" t="str">
+        <v>/home/anil/workspace/projects/cric-tube/images/India.png</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Match status</v>
+        <v>Team 2</v>
       </c>
       <c r="B4" t="str">
-        <v>New Zealand opt to bowl</v>
+        <v>Australia</v>
+      </c>
+      <c r="C4" t="str">
+        <v>/home/anil/workspace/projects/cric-tube/images/Australia.png</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Toss result</v>
+        <v>Match state</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>Stumps</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Winner</v>
+        <v>Match status</v>
       </c>
       <c r="B6" t="str">
-        <v>New Zealand</v>
+        <v>Day 1: Stumps</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Decision</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Bowling</v>
+        <v>Toss result</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Batting team</v>
+        <v>Winner</v>
       </c>
       <c r="B8" t="str">
-        <v/>
+        <v>India</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Name</v>
+        <v>Decision</v>
       </c>
       <c r="B9" t="str">
-        <v>England</v>
+        <v>Batting</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Score</v>
-      </c>
-      <c r="B10">
-        <v>256</v>
+        <v>Batting team</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Wicket</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
+        <v>Name</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Australia</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Current run rate</v>
+        <v>Score</v>
       </c>
       <c r="B12">
-        <v>3.44</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Required run rate</v>
+        <v>Wicket</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Overs</v>
+        <v>Current run rate</v>
       </c>
       <c r="B14">
-        <v>74.2</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Recent overs</v>
-      </c>
-      <c r="B15" t="str">
-        <v>... 0 1 0 4  | 0 0 0 0 0 0  | 0 W</v>
+        <v>Required run rate</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Last wicket</v>
-      </c>
-      <c r="B16" t="str">
-        <v>James Anderson  c Blundell b Wagner 4(6)  - 256/10 in 74.2 ov.</v>
+        <v>Overs</v>
+      </c>
+      <c r="B16">
+        <v>53.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Latest Performance</v>
+        <v>Recent overs</v>
+      </c>
+      <c r="B17" t="str">
+        <v>...  | 1 0 1 0 0 0  | 0 0 0 0 0 0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Last 10 overs</v>
+        <v>Last wicket</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Steven Smith  c Srikar Bharat b Jadeja 26(38)  - 146/4 in 48.5 ov.</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Runs</v>
-      </c>
-      <c r="B19">
-        <v>35</v>
+        <v>Latest Performance</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Wickets</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
+        <v>Last 10 overs</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Last 10 overs</v>
+        <v>Runs</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Runs</v>
+        <v>Wickets</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Wickets</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
+        <v>Last 5 overs</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Striker Batsman</v>
-      </c>
-      <c r="B24" t="str">
-        <v/>
+        <v>Runs</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Jack Leach</v>
+        <v>Wickets</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Runs</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
+        <v>Striker Batsman</v>
+      </c>
+      <c r="B26" t="str">
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Balls</v>
-      </c>
-      <c r="B27">
-        <v>31</v>
+        <v>Name</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Cameron Green</v>
+      </c>
+      <c r="C27" t="str">
+        <v>/home/anil/workspace/projects/cric-tube/images/CameronGreen.png</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Dot</v>
+        <v>Runs</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Fours</v>
+        <v>Balls</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Sixes</v>
+        <v>Dot</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>StrikeRate</v>
+        <v>Fours</v>
       </c>
       <c r="B31">
-        <v>3.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Non striker Batsman</v>
-      </c>
-      <c r="B32" t="str">
-        <v/>
+        <v>Sixes</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B33" t="str">
-        <v/>
+        <v>StrikeRate</v>
+      </c>
+      <c r="B33">
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Runs</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
+        <v>Non striker Batsman</v>
+      </c>
+      <c r="B34" t="str">
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Balls</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+        <v>Name</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Peter Handscomb</v>
+      </c>
+      <c r="C35" t="str">
+        <v>/home/anil/workspace/projects/cric-tube/images/PeterHandscomb.png</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Dot</v>
+        <v>Runs</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Fours</v>
+        <v>Balls</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Sixes</v>
+        <v>Dot</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>StrikeRate</v>
+        <v>Fours</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -709,483 +710,316 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Partnership</v>
+        <v>Sixes</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Balls</v>
+        <v>StrikeRate</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Runs</v>
-      </c>
-      <c r="B42">
-        <v>5</v>
+        <v>Partnership</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Striker Bowler</v>
+        <v>Balls</v>
+      </c>
+      <c r="B43">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B44" t="str">
-        <v>Neil Wagner</v>
+        <v>Runs</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Maidens</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
+        <v>Striker Bowler</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>No Balls</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
+        <v>Name</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Ravichandran Ashwin</v>
+      </c>
+      <c r="C46" t="str">
+        <v>/home/anil/workspace/projects/cric-tube/images/RavichandranAshwin.png</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Overs</v>
+        <v>Maidens</v>
       </c>
       <c r="B47">
-        <v>15.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Runs</v>
+        <v>No Balls</v>
       </c>
       <c r="B48">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Wides</v>
+        <v>Overs</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Wickets</v>
+        <v>Runs</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Economy</v>
+        <v>Wides</v>
       </c>
       <c r="B51">
-        <v>4.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Non Striker Bowler</v>
+        <v>Wickets</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B53" t="str">
-        <v>Tim Southee</v>
+        <v>Economy</v>
+      </c>
+      <c r="B53">
+        <v>2.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Maidens</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
+        <v>Non Striker Bowler</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>No Balls</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
+        <v>Name</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Ravindra Jadeja</v>
+      </c>
+      <c r="C55" t="str">
+        <v>/home/anil/workspace/projects/cric-tube/images/RavindraJadeja.png</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Overs</v>
+        <v>Maidens</v>
       </c>
       <c r="B56">
-        <v>20.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Runs</v>
+        <v>No Balls</v>
       </c>
       <c r="B57">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Wides</v>
+        <v>Overs</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Wickets</v>
+        <v>Runs</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Economy</v>
+        <v>Wides</v>
       </c>
       <c r="B60">
-        <v>2.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Inning No</v>
+        <v>Wickets</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Batting Team</v>
-      </c>
-      <c r="B62" t="str">
-        <v>England</v>
+        <v>Economy</v>
+      </c>
+      <c r="B62">
+        <v>2.63</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Score</v>
+        <v>Inning No</v>
       </c>
       <c r="B63">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Wickets</v>
-      </c>
-      <c r="B64">
-        <v>8</v>
+        <v>Batting Team</v>
+      </c>
+      <c r="B64" t="str">
+        <v>India</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Overs</v>
+        <v>Score</v>
       </c>
       <c r="B65">
-        <v>87.1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Declared</v>
-      </c>
-      <c r="B66" t="str">
-        <v>Yes</v>
+        <v>Wickets</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Follow on</v>
-      </c>
-      <c r="B67" t="str">
-        <v>No</v>
+        <v>Overs</v>
+      </c>
+      <c r="B67">
+        <v>33.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Balls</v>
-      </c>
-      <c r="B68">
-        <v>523</v>
+        <v>Declared</v>
+      </c>
+      <c r="B68" t="str">
+        <v>No</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Inning No</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
+        <v>Follow on</v>
+      </c>
+      <c r="B69" t="str">
+        <v>No</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Batting Team</v>
-      </c>
-      <c r="B70" t="str">
-        <v>New Zealand</v>
+        <v>Balls</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Score</v>
+        <v>Inning No</v>
       </c>
       <c r="B71">
-        <v>209</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Wickets</v>
-      </c>
-      <c r="B72">
-        <v>10</v>
+        <v>Batting Team</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Australia</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Overs</v>
+        <v>Score</v>
       </c>
       <c r="B73">
-        <v>53.2</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Declared</v>
-      </c>
-      <c r="B74" t="str">
-        <v>No</v>
+        <v>Wickets</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Follow on</v>
-      </c>
-      <c r="B75" t="str">
-        <v>No</v>
+        <v>Overs</v>
+      </c>
+      <c r="B75">
+        <v>53.6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Balls</v>
-      </c>
-      <c r="B76">
-        <v>320</v>
+        <v>Declared</v>
+      </c>
+      <c r="B76" t="str">
+        <v>No</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Inning No</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
+        <v>Follow on</v>
+      </c>
+      <c r="B77" t="str">
+        <v>No</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Batting Team</v>
-      </c>
-      <c r="B78" t="str">
-        <v>New Zealand</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>Score</v>
-      </c>
-      <c r="B79">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>Wickets</v>
-      </c>
-      <c r="B80">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>Overs</v>
-      </c>
-      <c r="B81">
-        <v>162.3</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>Declared</v>
-      </c>
-      <c r="B82" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>Follow on</v>
-      </c>
-      <c r="B83" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
         <v>Balls</v>
       </c>
-      <c r="B84">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>Inning No</v>
-      </c>
-      <c r="B85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>Batting Team</v>
-      </c>
-      <c r="B86" t="str">
-        <v>England</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>Score</v>
-      </c>
-      <c r="B87">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>Wickets</v>
-      </c>
-      <c r="B88">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>Overs</v>
-      </c>
-      <c r="B89">
-        <v>74.2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>Declared</v>
-      </c>
-      <c r="B90" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>Follow on</v>
-      </c>
-      <c r="B91" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>Balls</v>
-      </c>
-      <c r="B92">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>Overs</v>
-      </c>
-      <c r="B93">
-        <v>74.2</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>Declared</v>
-      </c>
-      <c r="B94" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>Follow on</v>
-      </c>
-      <c r="B95" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>Balls</v>
-      </c>
-      <c r="B96">
-        <v>446</v>
+      <c r="B78">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B96"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C78"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/score.xlsx
+++ b/score.xlsx
@@ -426,7 +426,7 @@
         <v>India</v>
       </c>
       <c r="C3" t="str">
-        <v>/home/anil/workspace/projects/cric-tube/images/India.png</v>
+        <v>D:\liveCricketScore\images\India.png</v>
       </c>
     </row>
     <row r="4">
@@ -437,7 +437,7 @@
         <v>Australia</v>
       </c>
       <c r="C4" t="str">
-        <v>/home/anil/workspace/projects/cric-tube/images/Australia.png</v>
+        <v>D:\liveCricketScore\images\Australia.png</v>
       </c>
     </row>
     <row r="5">
@@ -445,7 +445,7 @@
         <v>Match state</v>
       </c>
       <c r="B5" t="str">
-        <v>Stumps</v>
+        <v>In Progress</v>
       </c>
     </row>
     <row r="6">
@@ -453,7 +453,7 @@
         <v>Match status</v>
       </c>
       <c r="B6" t="str">
-        <v>Day 1: Stumps</v>
+        <v>Day 2: 1st Session</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +498,7 @@
         <v>Score</v>
       </c>
       <c r="B12">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -514,7 +514,7 @@
         <v>Current run rate</v>
       </c>
       <c r="B14">
-        <v>2.89</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="15">
@@ -530,7 +530,7 @@
         <v>Overs</v>
       </c>
       <c r="B16">
-        <v>53.6</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>Recent overs</v>
       </c>
       <c r="B17" t="str">
-        <v>...  | 1 0 1 0 0 0  | 0 0 0 0 0 0</v>
+        <v>... 0 0 0 0  | 4 0 0 0 0 0  | 0 0</v>
       </c>
     </row>
     <row r="18">
@@ -564,7 +564,7 @@
         <v>Runs</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>Name</v>
       </c>
       <c r="B27" t="str">
-        <v>Cameron Green</v>
+        <v>Peter Handscomb</v>
       </c>
       <c r="C27" t="str">
-        <v>/home/anil/workspace/projects/cric-tube/images/CameronGreen.png</v>
+        <v>D:\liveCricketScore\images\PeterHandscomb.png</v>
       </c>
     </row>
     <row r="28">
@@ -614,7 +614,7 @@
         <v>Runs</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -622,7 +622,7 @@
         <v>Balls</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -630,7 +630,7 @@
         <v>Dot</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -654,7 +654,7 @@
         <v>StrikeRate</v>
       </c>
       <c r="B33">
-        <v>60</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="34">
@@ -670,10 +670,10 @@
         <v>Name</v>
       </c>
       <c r="B35" t="str">
-        <v>Peter Handscomb</v>
+        <v>Cameron Green</v>
       </c>
       <c r="C35" t="str">
-        <v>/home/anil/workspace/projects/cric-tube/images/PeterHandscomb.png</v>
+        <v>D:\liveCricketScore\images\CameronGreen.png</v>
       </c>
     </row>
     <row r="36">
@@ -681,7 +681,7 @@
         <v>Runs</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -689,7 +689,7 @@
         <v>Balls</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
@@ -697,7 +697,7 @@
         <v>Dot</v>
       </c>
       <c r="B38">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -705,7 +705,7 @@
         <v>Fours</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -721,7 +721,7 @@
         <v>StrikeRate</v>
       </c>
       <c r="B41">
-        <v>19.44</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="42">
@@ -734,7 +734,7 @@
         <v>Balls</v>
       </c>
       <c r="B43">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44">
@@ -742,7 +742,7 @@
         <v>Runs</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -755,10 +755,10 @@
         <v>Name</v>
       </c>
       <c r="B46" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="C46" t="str">
-        <v>/home/anil/workspace/projects/cric-tube/images/RavichandranAshwin.png</v>
+        <v>D:\liveCricketScore\images\RavindraJadeja.png</v>
       </c>
     </row>
     <row r="47">
@@ -766,7 +766,7 @@
         <v>Maidens</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -774,7 +774,7 @@
         <v>No Balls</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -782,7 +782,7 @@
         <v>Overs</v>
       </c>
       <c r="B49">
-        <v>16</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="50">
@@ -790,7 +790,7 @@
         <v>Runs</v>
       </c>
       <c r="B50">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51">
@@ -806,7 +806,7 @@
         <v>Wickets</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -827,10 +827,10 @@
         <v>Name</v>
       </c>
       <c r="B55" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="C55" t="str">
-        <v>/home/anil/workspace/projects/cric-tube/images/RavindraJadeja.png</v>
+        <v>D:\liveCricketScore\images\MohammedSiraj.png</v>
       </c>
     </row>
     <row r="56">
@@ -838,7 +838,7 @@
         <v>Maidens</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -854,7 +854,7 @@
         <v>Overs</v>
       </c>
       <c r="B58">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -862,7 +862,7 @@
         <v>Runs</v>
       </c>
       <c r="B59">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -878,7 +878,7 @@
         <v>Wickets</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -886,7 +886,7 @@
         <v>Economy</v>
       </c>
       <c r="B62">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="63">
@@ -974,7 +974,7 @@
         <v>Score</v>
       </c>
       <c r="B73">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74">
@@ -990,7 +990,7 @@
         <v>Overs</v>
       </c>
       <c r="B75">
-        <v>53.6</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="76">
@@ -1014,7 +1014,7 @@
         <v>Balls</v>
       </c>
       <c r="B78">
-        <v>324</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/score.xlsx
+++ b/score.xlsx
@@ -498,7 +498,7 @@
         <v>Score</v>
       </c>
       <c r="B12">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
@@ -514,7 +514,7 @@
         <v>Current run rate</v>
       </c>
       <c r="B14">
-        <v>2.79</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="15">
@@ -530,7 +530,7 @@
         <v>Overs</v>
       </c>
       <c r="B16">
-        <v>57.2</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>Recent overs</v>
       </c>
       <c r="B17" t="str">
-        <v>... 0 0 0 0  | 4 0 0 0 0 0  | 0 0</v>
+        <v>... 0 0 0 0  | 0 1 0 0 0 1  | 1 1</v>
       </c>
     </row>
     <row r="18">
@@ -564,7 +564,7 @@
         <v>Runs</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -572,7 +572,7 @@
         <v>Wickets</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -614,7 +614,7 @@
         <v>Runs</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -622,7 +622,7 @@
         <v>Balls</v>
       </c>
       <c r="B29">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -630,7 +630,7 @@
         <v>Dot</v>
       </c>
       <c r="B30">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -654,7 +654,7 @@
         <v>StrikeRate</v>
       </c>
       <c r="B33">
-        <v>15.91</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="34">
@@ -681,7 +681,7 @@
         <v>Runs</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -689,7 +689,7 @@
         <v>Balls</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -697,7 +697,7 @@
         <v>Dot</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -721,7 +721,7 @@
         <v>StrikeRate</v>
       </c>
       <c r="B41">
-        <v>45.45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -734,7 +734,7 @@
         <v>Balls</v>
       </c>
       <c r="B43">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44">
@@ -742,7 +742,7 @@
         <v>Runs</v>
       </c>
       <c r="B44">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -766,7 +766,7 @@
         <v>Maidens</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -782,7 +782,7 @@
         <v>Overs</v>
       </c>
       <c r="B49">
-        <v>25.2</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="50">
@@ -790,7 +790,7 @@
         <v>Runs</v>
       </c>
       <c r="B50">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
@@ -854,7 +854,7 @@
         <v>Overs</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -862,7 +862,7 @@
         <v>Runs</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -974,7 +974,7 @@
         <v>Score</v>
       </c>
       <c r="B73">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74">
@@ -990,7 +990,7 @@
         <v>Overs</v>
       </c>
       <c r="B75">
-        <v>57.2</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="76">
@@ -1014,7 +1014,7 @@
         <v>Balls</v>
       </c>
       <c r="B78">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/score.xlsx
+++ b/score.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +445,7 @@
         <v>Match state</v>
       </c>
       <c r="B5" t="str">
-        <v>In Progress</v>
+        <v>Stumps</v>
       </c>
     </row>
     <row r="6">
@@ -453,7 +453,7 @@
         <v>Match status</v>
       </c>
       <c r="B6" t="str">
-        <v>Day 2: 1st Session</v>
+        <v>Day 2: Stumps</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>Name</v>
       </c>
       <c r="B11" t="str">
-        <v>Australia</v>
+        <v>India</v>
       </c>
     </row>
     <row r="12">
@@ -498,7 +498,7 @@
         <v>Score</v>
       </c>
       <c r="B12">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
@@ -506,7 +506,7 @@
         <v>Wicket</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -514,7 +514,7 @@
         <v>Current run rate</v>
       </c>
       <c r="B14">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="15">
@@ -530,7 +530,7 @@
         <v>Overs</v>
       </c>
       <c r="B16">
-        <v>59.2</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>Recent overs</v>
       </c>
       <c r="B17" t="str">
-        <v>... 0 0 0 0  | 0 1 0 0 0 1  | 1 1</v>
+        <v>... 1 0 0  | 0 0 0 0 0 0  | 0 0 W</v>
       </c>
     </row>
     <row r="18">
@@ -546,7 +546,7 @@
         <v>Last wicket</v>
       </c>
       <c r="B18" t="str">
-        <v>Steven Smith  c Srikar Bharat b Jadeja 26(38)  - 146/4 in 48.5 ov.</v>
+        <v>Mohammed Siraj   b Lyon 0(7)  - 163/10 in 60.3 ov.</v>
       </c>
     </row>
     <row r="19">
@@ -564,7 +564,7 @@
         <v>Runs</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -572,7 +572,7 @@
         <v>Wickets</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -603,10 +603,10 @@
         <v>Name</v>
       </c>
       <c r="B27" t="str">
-        <v>Peter Handscomb</v>
+        <v>Axar Patel</v>
       </c>
       <c r="C27" t="str">
-        <v>D:\liveCricketScore\images\PeterHandscomb.png</v>
+        <v>D:\liveCricketScore\images\AxarPatel.png</v>
       </c>
     </row>
     <row r="28">
@@ -614,7 +614,7 @@
         <v>Runs</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -622,7 +622,7 @@
         <v>Balls</v>
       </c>
       <c r="B29">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
@@ -630,7 +630,7 @@
         <v>Dot</v>
       </c>
       <c r="B30">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -646,7 +646,7 @@
         <v>Sixes</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -654,7 +654,7 @@
         <v>StrikeRate</v>
       </c>
       <c r="B33">
-        <v>16.98</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="34">
@@ -670,10 +670,10 @@
         <v>Name</v>
       </c>
       <c r="B35" t="str">
-        <v>Cameron Green</v>
+        <v/>
       </c>
       <c r="C35" t="str">
-        <v>D:\liveCricketScore\images\CameronGreen.png</v>
+        <v/>
       </c>
     </row>
     <row r="36">
@@ -681,7 +681,7 @@
         <v>Runs</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -689,7 +689,7 @@
         <v>Balls</v>
       </c>
       <c r="B37">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -697,7 +697,7 @@
         <v>Dot</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -705,7 +705,7 @@
         <v>Fours</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -721,7 +721,7 @@
         <v>StrikeRate</v>
       </c>
       <c r="B41">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -734,7 +734,7 @@
         <v>Balls</v>
       </c>
       <c r="B43">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -742,7 +742,7 @@
         <v>Runs</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -755,10 +755,10 @@
         <v>Name</v>
       </c>
       <c r="B46" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="C46" t="str">
-        <v>D:\liveCricketScore\images\RavindraJadeja.png</v>
+        <v>D:\liveCricketScore\images\MitchellStarc.png</v>
       </c>
     </row>
     <row r="47">
@@ -766,7 +766,7 @@
         <v>Maidens</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -774,7 +774,7 @@
         <v>No Balls</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -782,7 +782,7 @@
         <v>Overs</v>
       </c>
       <c r="B49">
-        <v>26.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -790,7 +790,7 @@
         <v>Runs</v>
       </c>
       <c r="B50">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -806,7 +806,7 @@
         <v>Wickets</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -814,7 +814,7 @@
         <v>Economy</v>
       </c>
       <c r="B53">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -827,10 +827,10 @@
         <v>Name</v>
       </c>
       <c r="B55" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Nathan Lyon</v>
       </c>
       <c r="C55" t="str">
-        <v>D:\liveCricketScore\images\MohammedSiraj.png</v>
+        <v>D:\liveCricketScore\images\NathanLyon.png</v>
       </c>
     </row>
     <row r="56">
@@ -846,7 +846,7 @@
         <v>No Balls</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -854,7 +854,7 @@
         <v>Overs</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="59">
@@ -862,7 +862,7 @@
         <v>Runs</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60">
@@ -878,7 +878,7 @@
         <v>Wickets</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -886,7 +886,7 @@
         <v>Economy</v>
       </c>
       <c r="B62">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="63">
@@ -974,7 +974,7 @@
         <v>Score</v>
       </c>
       <c r="B73">
-        <v>164</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74">
@@ -982,7 +982,7 @@
         <v>Wickets</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -990,7 +990,7 @@
         <v>Overs</v>
       </c>
       <c r="B75">
-        <v>59.2</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="76">
@@ -1014,12 +1014,76 @@
         <v>Balls</v>
       </c>
       <c r="B78">
-        <v>356</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Inning No</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Batting Team</v>
+      </c>
+      <c r="B80" t="str">
+        <v>India</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Score</v>
+      </c>
+      <c r="B81">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Wickets</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Overs</v>
+      </c>
+      <c r="B83">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Declared</v>
+      </c>
+      <c r="B84" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Follow on</v>
+      </c>
+      <c r="B85" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Balls</v>
+      </c>
+      <c r="B86">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C78"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C86"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/score.xlsx
+++ b/score.xlsx
@@ -426,7 +426,7 @@
         <v>Score</v>
       </c>
       <c r="B3" t="str">
-        <v>33-0 (4.1)</v>
+        <v>67-1 (9.4)</v>
       </c>
     </row>
     <row r="4">
@@ -450,7 +450,7 @@
         <v>Current run rate</v>
       </c>
       <c r="B6">
-        <v>7.92</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="7">
@@ -458,7 +458,7 @@
         <v>Required run rate</v>
       </c>
       <c r="B7">
-        <v>4.61</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="8">
@@ -466,7 +466,7 @@
         <v>Overs</v>
       </c>
       <c r="B8">
-        <v>4.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="9">
@@ -474,7 +474,7 @@
         <v>Partnership(runs/balls)</v>
       </c>
       <c r="B9" t="str">
-        <v>33/25</v>
+        <v>2/5</v>
       </c>
     </row>
     <row r="10">
@@ -490,7 +490,7 @@
         <v>Last over</v>
       </c>
       <c r="B11" t="str">
-        <v xml:space="preserve"> L1 0 0 4 4 4  </v>
+        <v xml:space="preserve"> 1 2 1 0 W 0  </v>
       </c>
     </row>
     <row r="12">
@@ -498,7 +498,7 @@
         <v>This over</v>
       </c>
       <c r="B12" t="str">
-        <v xml:space="preserve">... 1 0 0 0 0  </v>
+        <v xml:space="preserve">... 1 0  </v>
       </c>
     </row>
     <row r="13">
@@ -514,10 +514,10 @@
         <v>Name</v>
       </c>
       <c r="B14" t="str">
-        <v>Yastika Bhatia</v>
+        <v>Hayley Matthews</v>
       </c>
       <c r="C14" t="str">
-        <v>/home/anil/workspace/projects/cric-tube/images/YastikaBhatia.png</v>
+        <v>/home/anil/workspace/projects/cric-tube/images/HayleyMatthews.png</v>
       </c>
     </row>
     <row r="15">
@@ -525,7 +525,7 @@
         <v>Score(runs/balls)</v>
       </c>
       <c r="B15" t="str">
-        <v>14 (11)</v>
+        <v>23 (23)</v>
       </c>
     </row>
     <row r="16">
@@ -533,7 +533,7 @@
         <v>Dot</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -541,7 +541,7 @@
         <v>Fours</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -557,7 +557,7 @@
         <v>StrikeRate</v>
       </c>
       <c r="B19">
-        <v>127.27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -573,10 +573,10 @@
         <v>Name</v>
       </c>
       <c r="B21" t="str">
-        <v>Hayley Matthews</v>
+        <v>Nat Sciver-Brunt</v>
       </c>
       <c r="C21" t="str">
-        <v>/home/anil/workspace/projects/cric-tube/images/HayleyMatthews.png</v>
+        <v>/home/anil/workspace/projects/cric-tube/images/NatSciver-Brunt.png</v>
       </c>
     </row>
     <row r="22">
@@ -584,7 +584,7 @@
         <v>Score(runs/balls)</v>
       </c>
       <c r="B22" t="str">
-        <v>17 (14)</v>
+        <v>1 (3)</v>
       </c>
     </row>
     <row r="23">
@@ -592,7 +592,7 @@
         <v>Dot</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -600,7 +600,7 @@
         <v>Fours</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -616,7 +616,7 @@
         <v>StrikeRate</v>
       </c>
       <c r="B26">
-        <v>121.43</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="27">
@@ -629,10 +629,10 @@
         <v>Name</v>
       </c>
       <c r="B28" t="str">
-        <v>Marizanne Kapp</v>
+        <v>Jess Jonassen</v>
       </c>
       <c r="C28" t="str">
-        <v>/home/anil/workspace/projects/cric-tube/images/MarizanneKapp.png</v>
+        <v>/home/anil/workspace/projects/cric-tube/images/JessJonassen.png</v>
       </c>
     </row>
     <row r="29">
@@ -656,7 +656,7 @@
         <v>Overs</v>
       </c>
       <c r="B31">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="32">
@@ -664,7 +664,7 @@
         <v>Runs</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -672,7 +672,7 @@
         <v>Wides</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -688,7 +688,7 @@
         <v>Economy</v>
       </c>
       <c r="B35">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="36">
@@ -701,10 +701,10 @@
         <v>Name</v>
       </c>
       <c r="B37" t="str">
-        <v>Shikha Pandey</v>
+        <v>Tara Norris</v>
       </c>
       <c r="C37" t="str">
-        <v>/home/anil/workspace/projects/cric-tube/images/ShikhaPandey.png</v>
+        <v>/home/anil/workspace/projects/cric-tube/images/TaraNorris.png</v>
       </c>
     </row>
     <row r="38">
@@ -728,7 +728,7 @@
         <v>Overs</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -736,7 +736,7 @@
         <v>Runs</v>
       </c>
       <c r="B41">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -752,7 +752,7 @@
         <v>Wickets</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -760,7 +760,7 @@
         <v>Economy</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +848,7 @@
         <v>Score</v>
       </c>
       <c r="B55">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56">
@@ -856,7 +856,7 @@
         <v>Wickets</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -864,7 +864,7 @@
         <v>Overs</v>
       </c>
       <c r="B57">
-        <v>4.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>Balls</v>
       </c>
       <c r="B60">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
